--- a/HT-1/Monopoly-BAC-11-Catálogo de atributos y relaciones.xlsx
+++ b/HT-1/Monopoly-BAC-11-Catálogo de atributos y relaciones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chech\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D291285-4DB7-4950-BF41-259D867FF997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29177F52-E3D4-43EB-9CF1-7EC259C5E081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
   </bookViews>
   <sheets>
     <sheet name="BAC-11" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="48">
   <si>
     <t>Descripción</t>
   </si>
@@ -82,6 +82,102 @@
   </si>
   <si>
     <t>Un juego de Monopolio tiene 12 hoteles</t>
+  </si>
+  <si>
+    <t>Ficha</t>
+  </si>
+  <si>
+    <t>Precio</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Casa casilla tiene un "nombre" escrito correspondiente con una propiedad, servicio o evento especial.</t>
+  </si>
+  <si>
+    <t>Cuando la casilla corresponde con una propiedad tiene un color correspondiente con el color de ese grupo de propiedades</t>
+  </si>
+  <si>
+    <t>Una ficha se encuentra en una casilla en un momento determinado del juego.</t>
+  </si>
+  <si>
+    <t>Forma</t>
+  </si>
+  <si>
+    <t>Posición</t>
+  </si>
+  <si>
+    <t>Un monopolio tiene por lo general 6 u 8 fichas.</t>
+  </si>
+  <si>
+    <t>Jugador</t>
+  </si>
+  <si>
+    <t>Cada jugador toma el control de una ficha.</t>
+  </si>
+  <si>
+    <t>Banco</t>
+  </si>
+  <si>
+    <t>Siempre debe existir la entidad de Banco dentro del juego de monopolio</t>
+  </si>
+  <si>
+    <t>Monopolio se juega de 2 a 8 jugadores</t>
+  </si>
+  <si>
+    <t>Billete</t>
+  </si>
+  <si>
+    <t>Propiedad</t>
+  </si>
+  <si>
+    <t>Las propiedades se venden y compran en este juego por lo que tienen que haber varias</t>
+  </si>
+  <si>
+    <t>La divisa dentro del juego generalmente son billetes, por lo que deben haber muchos para poder comerciar</t>
+  </si>
+  <si>
+    <t>Tarjeta</t>
+  </si>
+  <si>
+    <t>Cada propiedad tiene un nombre único</t>
+  </si>
+  <si>
+    <t>Hay varias tarjetas en el monopolio, de propiedad o de evento especial (Arca comunal, casualidad)</t>
+  </si>
+  <si>
+    <t>A cada propiedad le corresponde una única tarjeta de propiedad</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>Hay un precio de compra para cada propiedad</t>
+  </si>
+  <si>
+    <t>Toda propiedad debe estar ubicada en una casilla</t>
+  </si>
+  <si>
+    <t>Los jugadores pueden comprar varias propiedades</t>
+  </si>
+  <si>
+    <t>Por cada propiedad comprar el jugador recibe su respectiva tarjeta de propiedad</t>
+  </si>
+  <si>
+    <t>El jugador tiene varios billetes con los cuales comercia</t>
+  </si>
+  <si>
+    <t>Cada billete tiene una denominación</t>
+  </si>
+  <si>
+    <t>Con base en su denominación el billete tiene un color</t>
+  </si>
+  <si>
+    <t>Al comienzo del juego el banco tiene todas las propiedades y son compradas por los jugadores</t>
   </si>
 </sst>
 </file>
@@ -123,7 +219,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -146,14 +242,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -161,11 +279,51 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -480,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABDEE2F-9DA5-4F4F-A9BF-B9BEA22ACD0E}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -492,162 +650,400 @@
     <col min="3" max="3" width="44.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+    </row>
+    <row r="2" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+    </row>
+    <row r="3" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+    </row>
+    <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="B7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="C7" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="10"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="B9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="C9" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="13"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+      <c r="B11" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="C11" s="10"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="11"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="11"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="7"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="B18" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A21" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A25" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A28" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
+      <c r="C30" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A32" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="7"/>
+    </row>
+    <row r="35" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A35" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="18"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="18"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="18"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="18"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="18"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="18"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="18"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="18"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HT-1/Monopoly-BAC-11-Catálogo de atributos y relaciones.xlsx
+++ b/HT-1/Monopoly-BAC-11-Catálogo de atributos y relaciones.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chech\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chech\Documents\GitHub\p3\arquiemp\HT-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29177F52-E3D4-43EB-9CF1-7EC259C5E081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B46CA9A0-0F56-473A-A081-A0CBDC1A696C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
   </bookViews>
   <sheets>
     <sheet name="BAC-11" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="64">
   <si>
     <t>Descripción</t>
   </si>
@@ -87,9 +87,6 @@
     <t>Ficha</t>
   </si>
   <si>
-    <t>Precio</t>
-  </si>
-  <si>
     <t>Color</t>
   </si>
   <si>
@@ -178,6 +175,57 @@
   </si>
   <si>
     <t>Al comienzo del juego el banco tiene todas las propiedades y son compradas por los jugadores</t>
+  </si>
+  <si>
+    <t>Siguiente</t>
+  </si>
+  <si>
+    <t>Cada jugador tiene un turno en el juego</t>
+  </si>
+  <si>
+    <t>Barrio</t>
+  </si>
+  <si>
+    <t>Un barrio puede tener entre 2 o 3 propiedades asociadas</t>
+  </si>
+  <si>
+    <t>precioHotel</t>
+  </si>
+  <si>
+    <t>El precio de adquirir un hotel en dicha propiedad</t>
+  </si>
+  <si>
+    <t>precioCasa</t>
+  </si>
+  <si>
+    <t>renta</t>
+  </si>
+  <si>
+    <t>Hipoteca</t>
+  </si>
+  <si>
+    <t>El precio de adquirir una casa en dicha propiedad</t>
+  </si>
+  <si>
+    <t>Alquiler a pagar al caer en esta propiedad</t>
+  </si>
+  <si>
+    <t>Valor de hipotecar la propiedad</t>
+  </si>
+  <si>
+    <t>Una propiedad puede tener entre 0 y 4 casas</t>
+  </si>
+  <si>
+    <t>Una propiedad puede tener entre 0 y 1 hotel</t>
+  </si>
+  <si>
+    <t>Información</t>
+  </si>
+  <si>
+    <t>Una tarjeta contiene información de propiedades o eventos especiales</t>
+  </si>
+  <si>
+    <t>Las tarjetas de casualidad y arca comunal se encuentran puestas sobre el tablero</t>
   </si>
 </sst>
 </file>
@@ -219,7 +267,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -266,11 +314,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -304,15 +365,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -323,6 +375,34 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -638,10 +718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABDEE2F-9DA5-4F4F-A9BF-B9BEA22ACD0E}">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -688,10 +768,10 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="22" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="10" t="s">
@@ -699,10 +779,10 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="22" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="10" t="s">
@@ -710,19 +790,19 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="22" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="11" t="s">
@@ -730,322 +810,422 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="13"/>
+      <c r="C10" s="10"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="24" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="10"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="42" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
+    <row r="13" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A13" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+      <c r="A14" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="11" t="s">
+    </row>
+    <row r="15" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+      <c r="A15" s="21"/>
+      <c r="B15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="42" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
+    <row r="16" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="11"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="21"/>
+      <c r="B18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="11"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A23" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="19"/>
+      <c r="B25" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="19"/>
+      <c r="B26" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="19"/>
+      <c r="B27" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="19"/>
+      <c r="B28" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="19"/>
+      <c r="B29" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A33" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="16"/>
+    </row>
+    <row r="35" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A40" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="11"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="11"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="11" t="s">
+      <c r="C41" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="22" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="11" t="s">
+      <c r="B42" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A43" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="22" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A21" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="11" t="s">
+      <c r="B45" s="22" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="11" t="s">
+      <c r="C45" s="7"/>
+    </row>
+    <row r="46" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A46" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B46" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="17" t="s">
+      <c r="C46" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A28" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A29" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A32" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C34" s="7"/>
-    </row>
-    <row r="35" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A35" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="18"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="18"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="18"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="18"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="18"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="18"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="18"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="18"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="15"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="15"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="15"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="15"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="15"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="15"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="15"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="15"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A24:A29"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A14:A15"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>